--- a/src/test/java/TestData/Nopcomdtadriven.xlsx
+++ b/src/test/java/TestData/Nopcomdtadriven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PragatiSharma\IdeaProjects\NopCommerceBddPropertiesAndExcel\src\test\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PragatiSharma\IdeaProjects\DemoProject-Implementeddd-Bdd-PageFactory-\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
